--- a/风险管理计划.xlsx
+++ b/风险管理计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\noGames\InnovativePractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC48D762-FB19-4AFB-B474-BB535822B49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AD0284-4908-4467-B8D2-CE0D8DD4B43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="263" windowWidth="19396" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>风险管理计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,82 @@
   </si>
   <si>
     <t>跟踪频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求变更风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十分重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十分紧急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十分频繁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通不良风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频繁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统性能风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队成员协作风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,83 +509,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N3"/>
+  <dimension ref="B2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.9296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.06640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.53125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/风险管理计划.xlsx
+++ b/风险管理计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\noGames\InnovativePractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AD0284-4908-4467-B8D2-CE0D8DD4B43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC86BCF-E315-4D69-AFD6-642A1194C34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="263" windowWidth="19396" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3202" yWindow="1808" windowWidth="14400" windowHeight="7552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>风险管理计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,26 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资源（软件、材料、人力）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目管理（估计、 规划、安全）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部因素（客户依赖、供应商）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术（配置管理、设计、需求、技术）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度：进度约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>风险说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,14 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前提</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>十分重要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>十分频繁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沟通不良风险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>频繁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>质量风险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,7 +119,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约束</t>
+    <t>用户对于功能表达不全面或技术人员理解不充分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户对舆论需求超出实现能力</t>
+  </si>
+  <si>
+    <t>算法开发进度缓慢导致开发进度缓慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品设计存在缺陷，拓展性不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统反馈迟缓，产品分析能力不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分工不明确，造成人力资源浪费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法难以达到要求或未能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬虫算法实现过程可能违反相关法律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理、外部因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源、项目管理、技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三天一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五天一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>及时跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段性跟踪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,8 +256,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,46 +547,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N10"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="20.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:9" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -573,248 +601,218 @@
       <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+    </row>
+    <row r="4" spans="2:9" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>22</v>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
